--- a/COVSCA/Adjacency_matrix_women.xlsx
+++ b/COVSCA/Adjacency_matrix_women.xlsx
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.164663916758826</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.17905006976352</v>
       </c>
       <c r="U4" t="n">
         <v>0.614329403810994</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.164663916758826</v>
       </c>
       <c r="C5" t="n">
         <v>0.225486939619093</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.20705099127268</v>
       </c>
       <c r="Q5" t="n">
         <v>0.375579581016019</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.164690930189243</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.20705099127268</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.164690930189243</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.17905006976352</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
